--- a/Projektplanung.xlsx
+++ b/Projektplanung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data\learning\Weiterbildung\Relationale Datenbanken mit SQL\Abschlussprojekt\SQL-Rechnungsprogramm-Gjoni-Reard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5421F6C7-459E-4CF0-98F7-805B255245F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC0D1E26-586E-4C21-9457-A63A5238C869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="4752" windowWidth="23256" windowHeight="13176" xr2:uid="{F9B33170-AAF7-4B35-BECE-784E17671F4A}"/>
   </bookViews>
@@ -1369,7 +1369,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C5967EC-939C-45E1-A30B-BF7CDB6573C3}">
   <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>

--- a/Projektplanung.xlsx
+++ b/Projektplanung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data\learning\Weiterbildung\Relationale Datenbanken mit SQL\Abschlussprojekt\SQL-Rechnungsprogramm-Gjoni-Reard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC0D1E26-586E-4C21-9457-A63A5238C869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C240766C-F078-4416-9DA2-EF8445253C64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="4752" windowWidth="23256" windowHeight="13176" xr2:uid="{F9B33170-AAF7-4B35-BECE-784E17671F4A}"/>
   </bookViews>
@@ -27,15 +27,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="172">
   <si>
     <t>erledigt</t>
   </si>
   <si>
     <t>Status</t>
-  </si>
-  <si>
-    <t>SELECT-Abfrage über mehrer Tabellen erstellen mit INNER JOIN</t>
   </si>
   <si>
     <t>SELECT-Abfrage über meherere Tabellen mit GROUP BY, SUM oder COUNT und HAVING</t>
@@ -176,12 +173,6 @@
 Testskript erstellen und speichern</t>
   </si>
   <si>
-    <t>002-001</t>
-  </si>
-  <si>
-    <t>002-002</t>
-  </si>
-  <si>
     <t xml:space="preserve">
 002-001-queryUebersichtFahrleistung.sql
 002-001-viewUebersichtFahrleistung.sql</t>
@@ -250,31 +241,10 @@
     <t>nicht bearbeitet stattdessen CURSOR erstellt</t>
   </si>
   <si>
-    <t>001-001</t>
-  </si>
-  <si>
-    <t>001-002</t>
-  </si>
-  <si>
-    <t>001-003</t>
-  </si>
-  <si>
-    <t>001-004</t>
-  </si>
-  <si>
-    <t>001-005</t>
-  </si>
-  <si>
-    <t>001-006</t>
-  </si>
-  <si>
     <t>Datenbank erstellen (CREATE DATABASE)</t>
   </si>
   <si>
     <t>003-001, 003-002, 003-004</t>
-  </si>
-  <si>
-    <t>Primärindizes vergeben (ADD CONTRAINST PRIMARY CLUSTERED)</t>
   </si>
   <si>
     <t>Status 
@@ -607,6 +577,39 @@
   </si>
   <si>
     <t>Alle Skripte / Funktionen sollten ausreichend kommentiert sein (lieber auf Deutsch)</t>
+  </si>
+  <si>
+    <t>001-01</t>
+  </si>
+  <si>
+    <t>001-02</t>
+  </si>
+  <si>
+    <t>Primärindizes vergeben (ADD CONSTRAINT PRIMARY CLUSTERED)</t>
+  </si>
+  <si>
+    <t>001-03</t>
+  </si>
+  <si>
+    <t>001-04</t>
+  </si>
+  <si>
+    <t>001-05</t>
+  </si>
+  <si>
+    <t>007-01</t>
+  </si>
+  <si>
+    <t>002-01</t>
+  </si>
+  <si>
+    <t>002-02</t>
+  </si>
+  <si>
+    <t>SELECT-Abfrage über mehrere Tabellen mit INNER JOIN</t>
+  </si>
+  <si>
+    <t>002-03</t>
   </si>
 </sst>
 </file>
@@ -1369,9 +1372,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C5967EC-939C-45E1-A30B-BF7CDB6573C3}">
   <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1389,7 +1392,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="C1" s="18" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -1397,22 +1400,22 @@
         <v>1</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F2" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="H2" s="19" t="s">
         <v>32</v>
-      </c>
-      <c r="G2" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="H2" s="19" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1421,17 +1424,17 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="23" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F3" s="23" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>66</v>
+        <v>161</v>
       </c>
       <c r="H3" s="6"/>
     </row>
@@ -1440,16 +1443,16 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F4" s="23" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>67</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1457,16 +1460,16 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>74</v>
+        <v>163</v>
       </c>
       <c r="E5" s="23" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F5" s="23" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>68</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1474,16 +1477,16 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F6" s="23" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>69</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1491,16 +1494,16 @@
         <v>5</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>70</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1508,16 +1511,16 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>71</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -1529,7 +1532,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="19" t="s">
@@ -1538,7 +1541,7 @@
       <c r="F11" s="21"/>
       <c r="G11" s="21"/>
       <c r="H11" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1546,10 +1549,16 @@
         <v>1</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>20</v>
+        <v>0</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="G12" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -1557,20 +1566,20 @@
         <v>3</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G14" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H14" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1578,16 +1587,16 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E15" s="23" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F15" s="23" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>46</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1595,16 +1604,16 @@
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>2</v>
+        <v>170</v>
       </c>
       <c r="E16" s="23" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F16" s="23" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>46</v>
+        <v>169</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1612,16 +1621,16 @@
         <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E17" s="23" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F17" s="23" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>47</v>
+        <v>171</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1629,40 +1638,38 @@
         <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E18" s="23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F18" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>46</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G18" s="8"/>
     </row>
     <row r="20" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>4</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="D20" s="20"/>
       <c r="E20" s="19" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="F20" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G20" s="19" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H20" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1670,16 +1677,16 @@
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E21" s="23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F21" s="23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -1687,16 +1694,16 @@
         <v>2</v>
       </c>
       <c r="C22" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E22" s="23" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F22" s="23" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1707,20 +1714,20 @@
         <v>5</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="D24" s="20"/>
       <c r="E24" s="19" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="F24" s="19" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G24" s="19" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H24" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1728,74 +1735,74 @@
         <v>1</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D25" s="3"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="D26" s="3"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="C27" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="E27" s="23" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="F27" s="23" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="G27" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="C28" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="D28" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E28" s="23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F28" s="23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G28" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="C29" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="D29" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E29" s="23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F29" s="23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G29" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -1803,20 +1810,20 @@
         <v>6</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D31" s="20"/>
       <c r="E31" s="19" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="F31" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G31" s="19" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="H31" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -1824,51 +1831,51 @@
         <v>1</v>
       </c>
       <c r="C32" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E32" s="23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F32" s="23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G32" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="C33" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="D33" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E33" s="23"/>
       <c r="F33" s="23"/>
     </row>
     <row r="35" spans="1:8" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B35" s="4"/>
       <c r="C35" s="20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D35" s="20"/>
       <c r="E35" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="F35" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="F35" s="19" t="s">
-        <v>24</v>
-      </c>
       <c r="G35" s="19" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="H35" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -1876,39 +1883,39 @@
         <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D36" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E36" s="23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F36" s="23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G36" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38" spans="1:8" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B38" s="4"/>
       <c r="C38" s="20" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="D38" s="20"/>
       <c r="E38" s="19" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="F38" s="19"/>
       <c r="G38" s="19" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="H38" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -1916,14 +1923,14 @@
         <v>1</v>
       </c>
       <c r="C39" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E39" s="23"/>
       <c r="H39" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -1931,40 +1938,40 @@
         <v>8</v>
       </c>
       <c r="C41" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D41" s="21"/>
       <c r="E41" s="19" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="F41" s="21"/>
       <c r="G41" s="19" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="H41" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E42" s="23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G42" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E43" s="23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G43" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="45" spans="1:8" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -1973,7 +1980,7 @@
       </c>
       <c r="B45" s="4"/>
       <c r="C45" s="20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D45" s="20"/>
       <c r="E45" s="19" t="s">
@@ -1981,10 +1988,10 @@
       </c>
       <c r="F45" s="19"/>
       <c r="G45" s="19" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="H45" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -1992,16 +1999,16 @@
         <v>1</v>
       </c>
       <c r="C46" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E46" s="23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G46" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="H46" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -2009,45 +2016,45 @@
         <v>2</v>
       </c>
       <c r="C47" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E47" s="23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G47" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B48" s="1" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="C48" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B49" s="1" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="C49" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B50" s="1" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="C50" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="C51" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -2055,7 +2062,7 @@
         <v>3</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -2069,10 +2076,10 @@
         <v>1</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="D54" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="56" spans="1:8" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -2081,7 +2088,7 @@
       </c>
       <c r="B56" s="4"/>
       <c r="C56" s="20" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="D56" s="20"/>
       <c r="E56" s="19" t="s">
@@ -2089,7 +2096,7 @@
       </c>
       <c r="F56" s="19"/>
       <c r="G56" s="19" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="H56" s="19"/>
     </row>
@@ -2098,38 +2105,38 @@
         <v>1</v>
       </c>
       <c r="C57" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="E57" s="23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B58" s="1" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="C58" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C61" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="C62" s="3" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="65" spans="3:3" x14ac:dyDescent="0.25">
@@ -2235,7 +2242,7 @@
       <formula>"erledigt"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12">
+  <conditionalFormatting sqref="E12:F12">
     <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>"offen"</formula>
     </cfRule>
@@ -2255,7 +2262,7 @@
           <x14:formula1>
             <xm:f>Dropdownlisten!$B$3:$B$5</xm:f>
           </x14:formula1>
-          <xm:sqref>E36:F36 E15:F18 E12 E57 E21:F22 E27:F29 E32:F33 E39 E46:E47 E42:E43 E3:F9</xm:sqref>
+          <xm:sqref>E36:F36 E15:F18 E12:F12 E57 E21:F22 E27:F29 E32:F33 E39 E46:E47 E42:E43 E3:F9</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2282,266 +2289,266 @@
   <sheetData>
     <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="18" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>36</v>
-      </c>
       <c r="D3" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="D4" s="11"/>
     </row>
     <row r="5" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="B5" s="12" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="D5" s="11"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="16"/>
       <c r="B6" s="12" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="D6" s="11"/>
     </row>
     <row r="7" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="16"/>
       <c r="B7" s="12" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="D7" s="11"/>
     </row>
     <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="16"/>
       <c r="B8" s="12" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="D8" s="11"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="16"/>
       <c r="B9" s="12" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="D9" s="11"/>
     </row>
     <row r="10" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="16"/>
       <c r="B10" s="12" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="D10" s="11"/>
     </row>
     <row r="11" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="14" t="s">
         <v>38</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="17"/>
       <c r="B12" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="15" t="s">
-        <v>52</v>
-      </c>
       <c r="D12" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="12" t="s">
-        <v>53</v>
-      </c>
       <c r="C13" s="12" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="16"/>
       <c r="B14" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="16"/>
       <c r="B15" s="12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="16"/>
       <c r="B16" s="12" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A17" s="16"/>
       <c r="B17" s="12" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="D20" s="15"/>
     </row>
     <row r="21" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="17"/>
       <c r="B21" s="15" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="D21" s="15"/>
     </row>
     <row r="22" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="16"/>
       <c r="B23" s="12" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="16"/>
       <c r="B24" s="12" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="D24" s="11"/>
     </row>
@@ -2571,13 +2578,13 @@
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D3" s="9"/>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
